--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2112.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2112.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.856435806777413</v>
+        <v>1.378347992897034</v>
       </c>
       <c r="B1">
-        <v>2.107822391039496</v>
+        <v>4.233298301696777</v>
       </c>
       <c r="C1">
-        <v>1.745510870677877</v>
+        <v>2.147314548492432</v>
       </c>
       <c r="D1">
-        <v>1.796307641087201</v>
+        <v>1.660015344619751</v>
       </c>
       <c r="E1">
-        <v>2.062216137043925</v>
+        <v>1.501710891723633</v>
       </c>
     </row>
   </sheetData>
